--- a/data/standardized_CF.xlsx
+++ b/data/standardized_CF.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielepicheo/GitHub/R /SEC_data_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17EE8E1C-3A2A-C545-AED0-7E96457F70DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDAD12A-8EF1-6F41-95FB-E96750DF0C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26380" yWindow="1680" windowWidth="21140" windowHeight="20020" xr2:uid="{4802AE4D-B274-A94A-943F-E5938A0AE0CD}"/>
+    <workbookView xWindow="2760" yWindow="2640" windowWidth="21140" windowHeight="20020" xr2:uid="{4802AE4D-B274-A94A-943F-E5938A0AE0CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6F0AFE-E52E-334A-8161-7EB63B8B31FB}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/standardized_CF.xlsx
+++ b/data/standardized_CF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielepicheo/GitHub/R /SEC_data_analysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielepicheo/Documents/Github/SEC_data_analysis/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDDAD12A-8EF1-6F41-95FB-E96750DF0C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495FCC4F-6335-B74F-87F9-4E6B6EEF4AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2760" yWindow="2640" windowWidth="21140" windowHeight="20020" xr2:uid="{4802AE4D-B274-A94A-943F-E5938A0AE0CD}"/>
+    <workbookView xWindow="23560" yWindow="6920" windowWidth="21140" windowHeight="20020" xr2:uid="{4802AE4D-B274-A94A-943F-E5938A0AE0CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="106">
   <si>
     <t>df_Facts_us_gaap_references</t>
   </si>
@@ -348,6 +348,12 @@
   </si>
   <si>
     <t>The increase (decrease) during the reporting period in the aggregate value of all inventory held by the reporting entity, associated with underlying transactions that are classified as operating activities.</t>
+  </si>
+  <si>
+    <t>NetCashProvidedByUsedInOperatingActivitiesContinuingOperations</t>
+  </si>
+  <si>
+    <t>Amount of cash inflow (outflow) from operating activities, including discontinued operations. Operating activity cash flows include transactions, adjustments, and changes in value not defined as investing or financing activities.</t>
   </si>
 </sst>
 </file>
@@ -750,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6F0AFE-E52E-334A-8161-7EB63B8B31FB}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1038,7 +1044,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
@@ -1055,253 +1061,254 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
       <c r="B18" s="7" t="s">
         <v>36</v>
       </c>
       <c r="C18" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D18" t="s">
-        <v>93</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="D19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="H19" s="7"/>
+    </row>
+    <row r="20" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="6" t="s">
+      <c r="B21" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="D19" t="s">
-        <v>93</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="D21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="B22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C22" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="D20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="D22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B23" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C23" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D21" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="5" t="s">
+      <c r="D23" t="s">
+        <v>93</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B24" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C24" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D22" t="s">
-        <v>93</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="5" t="s">
+      <c r="D24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B25" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C25" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D23" t="s">
-        <v>93</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="5" t="s">
+      <c r="D25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="D26" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="D25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="D27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B28" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C28" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="D26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
+      <c r="D28" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B29" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C29" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D27" t="s">
-        <v>93</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B28" s="7" t="s">
+      <c r="B30" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C30" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D28" t="s">
-        <v>93</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="5" t="s">
+      <c r="D30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B31" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C31" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="D29" t="s">
-        <v>93</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="5" t="s">
+      <c r="D31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="7" t="s">
+      <c r="B32" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C32" s="4" t="s">
         <v>71</v>
-      </c>
-      <c r="D30" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="D31" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>77</v>
       </c>
       <c r="D32" t="s">
         <v>93</v>
@@ -1312,112 +1319,146 @@
     </row>
     <row r="33" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B33" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B33" s="7" t="s">
+      <c r="B34" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="D33" t="s">
-        <v>93</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
+      <c r="D35" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B36" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D34" t="s">
-        <v>93</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
+      <c r="D36" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B37" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="D35" t="s">
-        <v>93</v>
-      </c>
-      <c r="E35" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="5" t="s">
+      <c r="D37" t="s">
+        <v>93</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B38" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C38" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D36" t="s">
-        <v>93</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
+      <c r="D38" t="s">
+        <v>93</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="7" t="s">
+      <c r="B39" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C39" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="D37" t="s">
-        <v>93</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3" t="s">
+      <c r="D39" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B40" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="D38" t="s">
-        <v>93</v>
-      </c>
-      <c r="E38" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39"/>
-      <c r="E39" s="4"/>
+      <c r="D40" t="s">
+        <v>93</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41"/>
+      <c r="E41" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/standardized_CF.xlsx
+++ b/data/standardized_CF.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielepicheo/Documents/Github/SEC_data_analysis/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\GitHub\R\SEC_data_analysis\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{495FCC4F-6335-B74F-87F9-4E6B6EEF4AA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ABCA764-A8F5-421C-BB9F-2B7C1B71A22D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23560" yWindow="6920" windowWidth="21140" windowHeight="20020" xr2:uid="{4802AE4D-B274-A94A-943F-E5938A0AE0CD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4802AE4D-B274-A94A-943F-E5938A0AE0CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="106">
   <si>
     <t>df_Facts_us_gaap_references</t>
   </si>
@@ -444,7 +444,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -460,7 +460,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema 2022">
   <a:themeElements>
     <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
@@ -758,20 +758,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F6F0AFE-E52E-334A-8161-7EB63B8B31FB}">
   <dimension ref="A1:H41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="67.6640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="63.1640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="83.1640625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="67.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="63.125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="83.125" style="5" customWidth="1"/>
     <col min="4" max="4" width="9.5" style="5" customWidth="1"/>
-    <col min="8" max="8" width="65.33203125" customWidth="1"/>
+    <col min="8" max="8" width="65.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>95</v>
       </c>
@@ -789,7 +789,7 @@
       </c>
       <c r="H1" s="1"/>
     </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
@@ -806,7 +806,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -823,7 +823,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
@@ -840,7 +840,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -857,7 +857,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -874,7 +874,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>10</v>
       </c>
@@ -891,7 +891,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>12</v>
       </c>
@@ -908,7 +908,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
@@ -925,7 +925,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
@@ -942,7 +942,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>15</v>
       </c>
@@ -959,7 +959,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>99</v>
       </c>
@@ -976,7 +976,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>99</v>
       </c>
@@ -993,7 +993,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>15</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>29</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>32</v>
       </c>
@@ -1061,7 +1061,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>35</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>35</v>
       </c>
@@ -1096,7 +1096,7 @@
       </c>
       <c r="H19" s="7"/>
     </row>
-    <row r="20" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>35</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>38</v>
       </c>
@@ -1130,7 +1130,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>38</v>
       </c>
@@ -1147,7 +1147,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>43</v>
       </c>
@@ -1164,7 +1164,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>46</v>
       </c>
@@ -1181,7 +1181,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>46</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>51</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>54</v>
       </c>
@@ -1232,7 +1232,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>57</v>
       </c>
@@ -1249,7 +1249,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>60</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>63</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>66</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>69</v>
       </c>
@@ -1317,7 +1317,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="5" t="s">
         <v>72</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
         <v>75</v>
       </c>
@@ -1351,7 +1351,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>75</v>
       </c>
@@ -1368,7 +1368,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>80</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>80</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
         <v>85</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>88</v>
       </c>
@@ -1436,7 +1436,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>88</v>
       </c>
@@ -1453,12 +1453,22 @@
         <v>97</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41"/>
-      <c r="E41" s="4"/>
+    <row r="41" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>97</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
